--- a/src/main/resources/xls/object_collection_output.xlsx
+++ b/src/main/resources/xls/object_collection_output.xlsx
@@ -14,18 +14,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Source Process</t>
+  </si>
+  <si>
+    <t>ISN</t>
+  </si>
+  <si>
+    <t>Latin Name</t>
+  </si>
+  <si>
+    <t>Project Codes</t>
+  </si>
+  <si>
+    <t>Physical Form</t>
+  </si>
+  <si>
+    <t>Production Date</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>Linked Concepts</t>
+  </si>
+  <si>
+    <t>some sample name1</t>
+  </si>
+  <si>
+    <t>some process name1</t>
+  </si>
+  <si>
+    <t>some isn1</t>
+  </si>
+  <si>
+    <t>some latin name1
+other latin name1</t>
+  </si>
+  <si>
+    <t>some code1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>some barcode1</t>
+  </si>
+  <si>
+    <t>some concept name1 (chemicalCompound)</t>
+  </si>
+  <si>
+    <t>some sample name2</t>
+  </si>
+  <si>
+    <t>some process name2</t>
+  </si>
+  <si>
+    <t>some isn2</t>
+  </si>
+  <si>
+    <t>some latin name2
+other latin name2</t>
+  </si>
+  <si>
+    <t>some code2</t>
+  </si>
+  <si>
+    <t>some barcode2</t>
+  </si>
+  <si>
+    <t>some concept name2 (naturalSource)</t>
+  </si>
   <si>
     <t>Parameter name</t>
   </si>
   <si>
     <t>Value(s)</t>
-  </si>
-  <si>
-    <t>AT_sample_171113964432223936</t>
-  </si>
-  <si>
-    <t>AVAKITT DUO (GEA1499)</t>
   </si>
   <si>
     <t>Name</t>
@@ -100,10 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="true"/>
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="true"/>
@@ -124,8 +195,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="2" max="2" width="15.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="1" max="1" width="23.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="2" max="2" width="24.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="3" max="3" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="7" max="7" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="8" max="8" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="9" max="9" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -135,13 +213,84 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45409.0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45409.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -170,51 +319,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/xls/object_collection_output.xlsx
+++ b/src/main/resources/xls/object_collection_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Sample Name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>28 04 2024</t>
   </si>
   <si>
     <t>some barcode1</t>
@@ -168,10 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="true"/>
@@ -197,13 +203,13 @@
   <cols>
     <col min="1" max="1" width="23.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="2" max="2" width="24.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="3" max="3" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="4" max="4" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="5" max="5" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="6" max="6" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="7" max="7" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="8" max="8" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="9" max="9" width="35.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="3" max="3" width="15.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="23.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="19.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="19.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="7" max="7" width="21.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="8" max="8" width="19.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="9" max="9" width="43.0" outlineLevel="0" customWidth="true" bestFit="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -236,62 +242,64 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="n">
-        <v>45409.0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="n">
-        <v>45409.0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -319,51 +327,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/xls/object_collection_output.xlsx
+++ b/src/main/resources/xls/object_collection_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Sample Name</t>
   </si>
@@ -59,7 +59,7 @@
     <t>some code1</t>
   </si>
   <si>
-    <t/>
+    <t>Some physical form value1</t>
   </si>
   <si>
     <t>28 04 2024</t>
@@ -68,7 +68,9 @@
     <t>some barcode1</t>
   </si>
   <si>
-    <t>some concept name1 (chemicalCompound)</t>
+    <t>some concept name 11 (naturalSource)
+some concept name 21 (chemicalCompound)
+some concept name 31 (strain)</t>
   </si>
   <si>
     <t>some sample name2</t>
@@ -87,10 +89,15 @@
     <t>some code2</t>
   </si>
   <si>
+    <t>Some physical form value2</t>
+  </si>
+  <si>
     <t>some barcode2</t>
   </si>
   <si>
-    <t>some concept name2 (naturalSource)</t>
+    <t>some concept name 12 (naturalSource)
+some concept name 22 (chemicalCompound)
+some concept name 32 (strain)</t>
   </si>
   <si>
     <t>Parameter name</t>
@@ -206,10 +213,10 @@
     <col min="3" max="3" width="15.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="4" max="4" width="23.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="5" max="5" width="19.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="6" max="6" width="19.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="31.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="7" max="7" width="21.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="8" max="8" width="19.0" outlineLevel="0" customWidth="true" bestFit="false"/>
-    <col min="9" max="9" width="43.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="9" max="9" width="45.0" outlineLevel="0" customWidth="true" bestFit="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -288,20 +295,28 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
   <headerFooter differentFirst="false" differentOddEven="false">
@@ -328,50 +343,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/xls/object_collection_output.xlsx
+++ b/src/main/resources/xls/object_collection_output.xlsx
@@ -16,6 +16,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
+    <t>Parameter name</t>
+  </si>
+  <si>
+    <t>Value(s)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Process Template</t>
+  </si>
+  <si>
+    <t>Concept Type</t>
+  </si>
+  <si>
+    <t>Concept Name</t>
+  </si>
+  <si>
+    <t>AT_sample_171113964432223936
+AT_sample_171113964432223938</t>
+  </si>
+  <si>
+    <t>AVAKITT DUO (GEA1499)
+Biostimulant discovery (DES-BIOSTM)
+Business Continuity</t>
+  </si>
+  <si>
+    <t>Batch Centrifugation
+Extra Freeze</t>
+  </si>
+  <si>
+    <t>chemicalCompound</t>
+  </si>
+  <si>
+    <t>Strain 3 for research target test
+Chemical compound 2</t>
+  </si>
+  <si>
     <t>Sample Name</t>
   </si>
   <si>
@@ -98,47 +139,6 @@
     <t>some concept name 12 (naturalSource)
 some concept name 22 (chemicalCompound)
 some concept name 32 (strain)</t>
-  </si>
-  <si>
-    <t>Parameter name</t>
-  </si>
-  <si>
-    <t>Value(s)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Process Template</t>
-  </si>
-  <si>
-    <t>Concept Type</t>
-  </si>
-  <si>
-    <t>Concept Name</t>
-  </si>
-  <si>
-    <t>AT_sample_171113964432223936
-AT_sample_171113964432223938</t>
-  </si>
-  <si>
-    <t>AVAKITT DUO (GEA1499)
-Biostimulant discovery (DES-BIOSTM)
-Business Continuity</t>
-  </si>
-  <si>
-    <t>Batch Centrifugation
-Extra Freeze</t>
-  </si>
-  <si>
-    <t>chemicalCompound</t>
-  </si>
-  <si>
-    <t>Strain 3 for research target test
-Chemical compound 2</t>
   </si>
 </sst>
 </file>
@@ -184,12 +184,12 @@
       <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -221,92 +221,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -342,51 +342,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
